--- a/data_migration/exports/companyworker.xlsx
+++ b/data_migration/exports/companyworker.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-09-02 23:20:07.468441-04:00</t>
+          <t>2022-09-02 23:20:07.468441</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-09-02 23:20:07.468441-04:00</t>
+          <t>2022-09-02 23:20:07.468441</t>
         </is>
       </c>
       <c r="G2" t="n">
